--- a/nr-update-cs/ig/StructureDefinition-as-ext-supported-capacity.xlsx
+++ b/nr-update-cs/ig/StructureDefinition-as-ext-supported-capacity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:35:53+00:00</t>
+    <t>2025-08-11T14:02:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
